--- a/data/UFWW Results Comparison-8-14-2019(1).xlsx
+++ b/data/UFWW Results Comparison-8-14-2019(1).xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewloop/Documents/uf-wastewater/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinsongdu/mnt/projects/uf-wastewater/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B04B1F62-0578-3845-B207-F733D97E2501}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6809EE0E-00AD-7A43-9FA4-9D7E1D8D2692}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Final-all samples" sheetId="8" r:id="rId1"/>
     <sheet name="Multiple analyses" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -50,7 +53,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Windows User:
 </t>
@@ -60,7 +63,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Contamination suspected, never re-ran</t>
         </r>
@@ -74,7 +77,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -83,7 +86,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Ratio 55% lower than average. 1c out of ratio due to interfering peak to the right</t>
@@ -98,7 +101,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -107,7 +110,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Interfering peak to the left with tailing that covers the amphetamine peak</t>
@@ -122,7 +125,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -131,7 +134,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Interfering peak to the left with tailing that covers the amphetamine peak</t>
@@ -146,7 +149,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -155,7 +158,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Interfering peak to the left with tailing that covers the amphetamine peak</t>
@@ -170,7 +173,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -179,7 +182,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Interfering peak to the left with tailing that covers the amphetamine peak</t>
@@ -194,7 +197,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -203,7 +206,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Interfering peak to the left with tailing that covers the amphetamine peak</t>
@@ -218,7 +221,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -227,7 +230,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Prior LLOQ 0.5 ng/mL</t>
@@ -242,7 +245,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -251,7 +254,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Interfering peak to the left with tailing that covers the amphetamine peak</t>
@@ -266,7 +269,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -275,7 +278,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Interfering peak to the left with tailing that covers the amphetamine peak</t>
@@ -290,7 +293,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -299,7 +302,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Interfering peak to the left with tailing that covers the amphetamine peak</t>
@@ -314,7 +317,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -323,7 +326,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Interfering peak to the left with tailing that covers the amphetamine peak</t>
@@ -338,7 +341,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -347,7 +350,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Interfering peak to the left with tailing that covers the amphetamine peak</t>
@@ -362,7 +365,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -371,7 +374,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Interfering peak to the left with tailing that covers the amphetamine peak</t>
@@ -386,7 +389,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -395,7 +398,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Interfering peak to the left with tailing that covers the amphetamine peak</t>
@@ -410,7 +413,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -419,7 +422,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Blank contamination present</t>
@@ -434,7 +437,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -443,7 +446,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LLOQ 0.15 ng/mL due to blank contamination</t>
@@ -458,7 +461,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -467,7 +470,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LLOQ 0.15 ng/mL due to blank contamination</t>
@@ -482,7 +485,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -491,7 +494,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LLOQ 1.25 ng/mL</t>
@@ -506,7 +509,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -516,7 +519,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Due to blank contamination present in quantitative transition</t>
         </r>
@@ -530,7 +533,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -540,7 +543,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">LLOQ 0.75 ng/mL
 due to blank contamination
@@ -580,7 +583,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -590,7 +593,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>No blank contamination in prior extraction</t>
         </r>
@@ -604,7 +607,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -614,7 +617,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>LLOQ 0.75 ng/mL due to blank contamination</t>
         </r>
@@ -628,7 +631,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -637,7 +640,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LLOQ 0.75 ng/mL due to blank contamination</t>
@@ -652,7 +655,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -662,7 +665,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>No blank contamination in prior extraction</t>
         </r>
@@ -676,7 +679,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -686,7 +689,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Fronting Present</t>
         </r>
@@ -700,7 +703,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -710,7 +713,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Fronting present</t>
         </r>
@@ -724,7 +727,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -733,7 +736,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> 
 LLOQ is 0.5 ng/mL</t>
@@ -743,7 +746,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -758,7 +761,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -767,7 +770,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> 
 Hydromorphone peak is very broad, likely resulting in inaccurate detection</t>
@@ -777,7 +780,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -792,7 +795,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -802,7 +805,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>LLOQ is 0.5 ng/mL</t>
         </r>
@@ -816,7 +819,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -825,7 +828,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> 
 Hydromorphone peak is very broad, likely resulting in inaccurate detection</t>
@@ -835,7 +838,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -850,7 +853,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -860,7 +863,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ratio 27% higher than average. Nearby interefering peak that is also present in 1c</t>
         </r>
@@ -874,7 +877,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -884,7 +887,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">LLOQ 0.5 ng/mL, split peak in 1c qualitative transition
 </t>
@@ -899,7 +902,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -909,7 +912,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>LLOQ 0.5 ng/mL due to 1c failing accuracy %</t>
         </r>
@@ -923,7 +926,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -932,7 +935,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LLOQ 2.5 ng/mL due to accuracy % failure on 1c-25c</t>
@@ -947,7 +950,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -957,7 +960,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>LLOQ 2.5 ng/mL due to high accuracy % likely caused by quantitative transition contamination in blank</t>
         </r>
@@ -971,7 +974,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -980,7 +983,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Blank Contamination Present</t>
@@ -995,7 +998,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -1004,7 +1007,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Prior LLOQ 0.5 ng/mL</t>
@@ -1019,7 +1022,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -1028,7 +1031,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Prior LLOQ 0.5 ng/mL</t>
@@ -1043,7 +1046,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -1052,7 +1055,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LLOQ 0.5 ng/mL</t>
@@ -1067,7 +1070,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -1076,7 +1079,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 No peak present for either transition</t>
@@ -1091,7 +1094,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -1100,7 +1103,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Both QCs out; Invalid Positive</t>
@@ -1115,7 +1118,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -1124,7 +1127,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1134,7 +1137,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Both QCs out; Invalid Positive</t>
         </r>
@@ -1148,7 +1151,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -1158,7 +1161,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Interefering peak present near qualitative transition</t>
         </r>
@@ -1172,7 +1175,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -1182,7 +1185,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Qualitative peak area is low and noisy</t>
         </r>
@@ -1196,7 +1199,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -1205,7 +1208,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Ratio 30% lower than average
@@ -1221,7 +1224,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -1231,7 +1234,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Qualitative transition slightly off RT and noisy</t>
         </r>
@@ -1245,7 +1248,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -1254,7 +1257,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Ratio 31% higher than average, fronting present</t>
@@ -1269,7 +1272,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -1279,7 +1282,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ratio 26% higher than average, Fronting Present</t>
         </r>
@@ -1293,7 +1296,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -1303,7 +1306,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Both transitions slightly shifted left (2.28 min instead of 2.30 min)</t>
         </r>
@@ -1317,7 +1320,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -1326,7 +1329,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Ratio 69% higher than average, fronting present</t>
@@ -1341,7 +1344,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -1350,7 +1353,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Quantitative peak at 2.28 min, Qualitative peak at 2.3 min (calibrators at 2.3 min)
@@ -1366,7 +1369,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -1375,7 +1378,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LLOQ 0.5 ng/mL, Ratio 27% lower than average</t>
@@ -1390,7 +1393,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -1399,7 +1402,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Ratio 45% lower than average, IS area half of others (150k instead of 300k)</t>
@@ -1414,7 +1417,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -1423,7 +1426,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Peak tailing present, fronting present in one of the 1c calibrators</t>
@@ -1438,7 +1441,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -1448,7 +1451,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Prior LLOQ 0.5 ng/mL</t>
         </r>
@@ -1462,7 +1465,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -1472,7 +1475,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Prior LLOQ 0.5 ng/mL</t>
         </r>
@@ -1486,7 +1489,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -1496,7 +1499,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Prior LLOQ 0.5 ng/mL</t>
         </r>
@@ -1510,7 +1513,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -1520,7 +1523,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Prior LLOQ 0.5 ng/mL</t>
         </r>
@@ -1534,7 +1537,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -1544,7 +1547,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Prior LLOQ 0.5 ng/mL</t>
         </r>
@@ -1558,7 +1561,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -1568,7 +1571,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Prior LLOQ 0.5 ng/mL</t>
         </r>
@@ -1582,7 +1585,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -1592,7 +1595,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Prior LLOQ 0.5 ng/mL</t>
         </r>
@@ -1606,7 +1609,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -1616,7 +1619,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Prior LLOQ 0.5 ng/mL</t>
         </r>
@@ -1630,7 +1633,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -1640,7 +1643,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Prior LLOQ 0.5 ng/mL</t>
         </r>
@@ -1654,7 +1657,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -1664,7 +1667,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Prior LLOQ 0.5 ng/mL</t>
         </r>
@@ -1678,7 +1681,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -1688,7 +1691,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Prior LLOQ 0.5 ng/mL</t>
         </r>
@@ -1702,7 +1705,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -1712,7 +1715,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Prior LLOQ 0.5 ng/mL</t>
         </r>
@@ -1726,7 +1729,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -1736,7 +1739,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Prior LLOQ 0.5 ng/mL</t>
         </r>
@@ -1750,7 +1753,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -1760,7 +1763,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Prior LLOQ 0.5 ng/mL</t>
         </r>
@@ -1774,7 +1777,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -1784,7 +1787,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Prior LLOQ 0.5 ng/mL</t>
         </r>
@@ -1798,7 +1801,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -1808,7 +1811,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Prior LLOQ 0.5 ng/mL</t>
         </r>
@@ -1822,7 +1825,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -1832,7 +1835,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Prior LLOQ 0.5 ng/mL</t>
         </r>
@@ -1846,7 +1849,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -1856,7 +1859,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Prior LLOQ 0.5 ng/mL</t>
         </r>
@@ -1870,7 +1873,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -1880,7 +1883,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Prior LLOQ 0.5 ng/mL</t>
         </r>
@@ -1894,7 +1897,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -1904,7 +1907,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Prior LLOQ 0.5 ng/mL</t>
         </r>
@@ -1918,7 +1921,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -1927,7 +1930,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Prior LLOQ 0.5 ng/mL</t>
@@ -1942,7 +1945,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -1952,7 +1955,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ratio 25% lower than average</t>
         </r>
@@ -1966,7 +1969,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -1976,7 +1979,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ratio</t>
         </r>
@@ -1986,7 +1989,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1995,7 +1998,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>29% below average</t>
         </r>
@@ -2009,7 +2012,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -2019,7 +2022,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Large nearby peak present, resulting in low S/N ratio.</t>
         </r>
@@ -2033,7 +2036,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -2042,7 +2045,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Ratio 79% higher than average, peak present in blanks for quantitative transition AUC ~100 vs 1c 1000 AUC</t>
@@ -2057,7 +2060,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -2066,7 +2069,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Ratio 35% higher than average, peak present in blanks for quantitative transition ~100 AUC vs 1c 1000 AUC</t>
@@ -2081,7 +2084,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -2091,7 +2094,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>LLOQ 0.5 ng/mL due to nearby interfering peak in 1c</t>
         </r>
@@ -2105,7 +2108,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -2114,7 +2117,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Ratio 274% higher than average, peak in quantitative transition of blank with AUC of 100 vs 1c 1000 AUC</t>
@@ -2129,7 +2132,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -2139,7 +2142,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Blank contamination present out of ratio with AUC of ~ 850 vs 1c 6000 AUC</t>
         </r>
@@ -2153,7 +2156,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -2163,7 +2166,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Qual transition not present</t>
         </r>
@@ -2177,7 +2180,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -2186,7 +2189,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Ratio 825% higher than average, peak present in blank for quantitative transition with AUC 100 vs 1c 1000 AUC</t>
@@ -2201,7 +2204,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -2211,7 +2214,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Contamination present in blank out of ratio, AUC 850 vs 1c 6000 AUC</t>
         </r>
@@ -2225,7 +2228,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -2235,7 +2238,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>400c out due to oversaturation</t>
         </r>
@@ -2249,7 +2252,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -2258,7 +2261,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Ratio 157% higher than average, peak present in blank for quantitative transition</t>
@@ -2273,7 +2276,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -2283,7 +2286,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>LLOQ 0.5 ng/mL due to nearby interefering peak in 1c</t>
         </r>
@@ -2297,7 +2300,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -2306,7 +2309,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Ratio 31% higher than average, peak present in blank for quantitative transition AUC 100 vs 1c 1000 AUC</t>
@@ -2321,7 +2324,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -2330,7 +2333,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Ratio 26% higher than average, peak present in blank for quantitative transition AUC 100 vs 1c 1000 AUC</t>
@@ -2345,7 +2348,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -2355,7 +2358,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>LLOQ 0.5 ng/mL due to nearby peak interference in 1c</t>
         </r>
@@ -2369,7 +2372,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -2378,7 +2381,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Ratio 86% higher than average, peak present in blank for quantitative transition AUC 100 vs 1c 1000 AUC</t>
@@ -2393,7 +2396,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -2403,7 +2406,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Blank contamination present out of ratio ~850 AUC vs 1c ~ 6000 AUC</t>
         </r>
@@ -2417,7 +2420,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -2427,7 +2430,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>LLOQ 0.5 ng/mL due to nearby interfering peak in 1c</t>
         </r>
@@ -2441,7 +2444,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -2450,7 +2453,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Ratio 63% higher than average, peak present in blank for quantitative transition</t>
@@ -2465,7 +2468,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -2475,7 +2478,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Blank contamination present out of ratio</t>
         </r>
@@ -2489,7 +2492,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -2499,7 +2502,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>400c out due to saturation</t>
         </r>
@@ -2513,7 +2516,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -2523,7 +2526,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>LLOQ 0.5 ng/mL due to nearby interfering peak in 1c</t>
         </r>
@@ -2537,7 +2540,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>ZDR:</t>
         </r>
@@ -2546,7 +2549,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Ratio 82% higher than average, peak present in blank for quantitative transition</t>
@@ -2561,7 +2564,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -2571,7 +2574,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Blank contamination present out of ratio</t>
         </r>
@@ -2585,7 +2588,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -2595,7 +2598,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>LLOQ 0.5 ng/mL</t>
         </r>
@@ -2609,7 +2612,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -2619,7 +2622,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>LLOQ 0.5 ng/mL</t>
         </r>
@@ -2633,7 +2636,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -2643,7 +2646,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>LLOQ 0.5 ng/mL</t>
         </r>
@@ -2657,7 +2660,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -2667,7 +2670,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>LLOQ 0.5 ng/mL</t>
         </r>
@@ -2681,7 +2684,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -2691,7 +2694,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>LLOQ 0.5 ng/mL</t>
         </r>
@@ -2705,7 +2708,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -2715,7 +2718,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>LLOQ 0.5 ng/mL</t>
         </r>
@@ -2729,7 +2732,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -2739,7 +2742,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>LLOQ 0.5 ng/mL</t>
         </r>
@@ -2753,7 +2756,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -2763,7 +2766,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>LLOQ 0.5 ng/mL</t>
         </r>
@@ -2777,7 +2780,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -2787,7 +2790,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>LLOQ 0.5 ng/mL</t>
         </r>
@@ -2801,7 +2804,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">ZDR:
 </t>
@@ -2811,7 +2814,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>LLOQ 0.5 ng/mL</t>
         </r>
@@ -4064,7 +4067,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4090,14 +4093,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -4126,19 +4129,6 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -4915,8 +4905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19801CA-4778-D041-840A-0C58B8A60820}">
   <dimension ref="A1:AJ60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
@@ -11630,8 +11620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EE62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="U18" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="EE1" sqref="EE1:EE60"/>
